--- a/team_specific_matrix/Eastern Mich._B.xlsx
+++ b/team_specific_matrix/Eastern Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2045454545454546</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="C2">
-        <v>0.5272727272727272</v>
+        <v>0.5287769784172662</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00909090909090909</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1727272727272727</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08636363636363636</v>
+        <v>0.09352517985611511</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00819672131147541</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="C3">
-        <v>0.04098360655737705</v>
+        <v>0.03289473684210526</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05737704918032787</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6885245901639344</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2049180327868853</v>
+        <v>0.1973684210526316</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0763888888888889</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02083333333333333</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2569444444444444</v>
+        <v>0.2435233160621762</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006944444444444444</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1805555555555556</v>
+        <v>0.1761658031088083</v>
       </c>
       <c r="R6">
-        <v>0.05555555555555555</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="S6">
-        <v>0.3472222222222222</v>
+        <v>0.3419689119170984</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07339449541284404</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04587155963302753</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="E7">
-        <v>0.009174311926605505</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="F7">
-        <v>0.06422018348623854</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1009174311926606</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03669724770642202</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2018348623853211</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.08256880733944955</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
-        <v>0.3853211009174312</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1151685393258427</v>
+        <v>0.1065217391304348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02247191011235955</v>
+        <v>0.02826086956521739</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05337078651685393</v>
+        <v>0.04782608695652174</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1432584269662921</v>
+        <v>0.1391304347826087</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01404494382022472</v>
+        <v>0.01521739130434783</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1769662921348314</v>
+        <v>0.1869565217391304</v>
       </c>
       <c r="R8">
-        <v>0.0898876404494382</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="S8">
-        <v>0.3848314606741573</v>
+        <v>0.3891304347826087</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1228070175438596</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02631578947368421</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02631578947368421</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06140350877192982</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008771929824561403</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2105263157894737</v>
+        <v>0.198581560283688</v>
       </c>
       <c r="R9">
-        <v>0.08771929824561403</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S9">
-        <v>0.456140350877193</v>
+        <v>0.4468085106382979</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1027322404371585</v>
+        <v>0.1014851485148515</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01092896174863388</v>
+        <v>0.01567656765676568</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.073224043715847</v>
+        <v>0.07673267326732673</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1169398907103825</v>
+        <v>0.1212871287128713</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01530054644808743</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2404371584699453</v>
+        <v>0.2409240924092409</v>
       </c>
       <c r="R10">
-        <v>0.08633879781420765</v>
+        <v>0.08828382838283828</v>
       </c>
       <c r="S10">
-        <v>0.3540983606557377</v>
+        <v>0.3432343234323432</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1551724137931035</v>
+        <v>0.1385281385281385</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1091954022988506</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="K11">
-        <v>0.1954022988505747</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="L11">
-        <v>0.5229885057471264</v>
+        <v>0.5281385281385281</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01724137931034483</v>
+        <v>0.01731601731601732</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6770833333333334</v>
+        <v>0.671875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2083333333333333</v>
+        <v>0.1953125</v>
       </c>
       <c r="K12">
-        <v>0.04166666666666666</v>
+        <v>0.03125</v>
       </c>
       <c r="L12">
-        <v>0.05208333333333334</v>
+        <v>0.0546875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02083333333333333</v>
+        <v>0.046875</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5333333333333333</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3666666666666666</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01204819277108434</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2469879518072289</v>
+        <v>0.2268518518518519</v>
       </c>
       <c r="I15">
-        <v>0.07228915662650602</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J15">
-        <v>0.3674698795180723</v>
+        <v>0.3796296296296297</v>
       </c>
       <c r="K15">
-        <v>0.02409638554216868</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01204819277108434</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06626506024096386</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1987951807228916</v>
+        <v>0.1990740740740741</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007407407407407408</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1925925925925926</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="I16">
-        <v>0.08888888888888889</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="J16">
-        <v>0.3555555555555556</v>
+        <v>0.3771428571428572</v>
       </c>
       <c r="K16">
-        <v>0.08888888888888889</v>
+        <v>0.08</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02222222222222222</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08888888888888889</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1555555555555556</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03107344632768362</v>
+        <v>0.02365591397849462</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.211864406779661</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="I17">
-        <v>0.0847457627118644</v>
+        <v>0.07741935483870968</v>
       </c>
       <c r="J17">
-        <v>0.4265536723163842</v>
+        <v>0.432258064516129</v>
       </c>
       <c r="K17">
-        <v>0.07627118644067797</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01977401129943503</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002150537634408602</v>
       </c>
       <c r="O17">
-        <v>0.06214689265536723</v>
+        <v>0.06236559139784946</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08757062146892655</v>
+        <v>0.09462365591397849</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0145985401459854</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2262773722627737</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="I18">
-        <v>0.0948905109489051</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="J18">
-        <v>0.4087591240875912</v>
+        <v>0.4378378378378379</v>
       </c>
       <c r="K18">
-        <v>0.1021897810218978</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0145985401459854</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0583941605839416</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08029197080291971</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004624277456647399</v>
+        <v>0.00625</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208092485549133</v>
+        <v>0.2223214285714286</v>
       </c>
       <c r="I19">
-        <v>0.05433526011560694</v>
+        <v>0.05446428571428572</v>
       </c>
       <c r="J19">
-        <v>0.3895953757225434</v>
+        <v>0.3866071428571429</v>
       </c>
       <c r="K19">
-        <v>0.09132947976878612</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02196531791907514</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="N19">
-        <v>0.0023121387283237</v>
+        <v>0.002678571428571429</v>
       </c>
       <c r="O19">
-        <v>0.07976878612716763</v>
+        <v>0.08214285714285714</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1352601156069364</v>
+        <v>0.1276785714285714</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Mich._B.xlsx
+++ b/team_specific_matrix/Eastern Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2014388489208633</v>
+        <v>0.2086092715231788</v>
       </c>
       <c r="C2">
-        <v>0.5287769784172662</v>
+        <v>0.5198675496688742</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01079136690647482</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1654676258992806</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09352517985611511</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="C3">
-        <v>0.03289473684210526</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05263157894736842</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7105263157894737</v>
+        <v>0.7160493827160493</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1973684210526316</v>
+        <v>0.1975308641975309</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6444444444444445</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3111111111111111</v>
+        <v>0.3137254901960784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07253886010362694</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0155440414507772</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07253886010362694</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2435233160621762</v>
+        <v>0.2522935779816514</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005181347150259068</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1761658031088083</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="R6">
-        <v>0.07253886010362694</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="S6">
-        <v>0.3419689119170984</v>
+        <v>0.3532110091743119</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09285714285714286</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04285714285714286</v>
+        <v>0.04</v>
       </c>
       <c r="E7">
-        <v>0.007142857142857143</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09285714285714286</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02857142857142857</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.08571428571428572</v>
+        <v>0.08</v>
       </c>
       <c r="S7">
         <v>0.4</v>
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1065217391304348</v>
+        <v>0.100990099009901</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02826086956521739</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04782608695652174</v>
+        <v>0.04752475247524753</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1391304347826087</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01521739130434783</v>
+        <v>0.01584158415841584</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1869565217391304</v>
+        <v>0.1782178217821782</v>
       </c>
       <c r="R8">
-        <v>0.08695652173913043</v>
+        <v>0.09504950495049505</v>
       </c>
       <c r="S8">
-        <v>0.3891304347826087</v>
+        <v>0.3940594059405941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1134751773049645</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02836879432624113</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03546099290780142</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0851063829787234</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.007092198581560284</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.198581560283688</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="R9">
-        <v>0.0851063829787234</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="S9">
-        <v>0.4468085106382979</v>
+        <v>0.4303797468354431</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1014851485148515</v>
+        <v>0.1006661732050333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01567656765676568</v>
+        <v>0.01628423390081421</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07673267326732673</v>
+        <v>0.07549962990377498</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1212871287128713</v>
+        <v>0.1206513693560326</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01237623762376238</v>
+        <v>0.01332346410066617</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2409240924092409</v>
+        <v>0.233160621761658</v>
       </c>
       <c r="R10">
-        <v>0.08828382838283828</v>
+        <v>0.08734270910436713</v>
       </c>
       <c r="S10">
-        <v>0.3432343234323432</v>
+        <v>0.3530717986676536</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1385281385281385</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1212121212121212</v>
+        <v>0.1174089068825911</v>
       </c>
       <c r="K11">
-        <v>0.1948051948051948</v>
+        <v>0.1983805668016194</v>
       </c>
       <c r="L11">
-        <v>0.5281385281385281</v>
+        <v>0.5182186234817814</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01731601731601732</v>
+        <v>0.02024291497975709</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.671875</v>
+        <v>0.6716417910447762</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1953125</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="K12">
-        <v>0.03125</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="L12">
-        <v>0.0546875</v>
+        <v>0.05223880597014925</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.046875</v>
+        <v>0.04477611940298507</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5789473684210527</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3421052631578947</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07894736842105263</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01388888888888889</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2268518518518519</v>
+        <v>0.2157676348547718</v>
       </c>
       <c r="I15">
-        <v>0.05555555555555555</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="J15">
-        <v>0.3796296296296297</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="K15">
-        <v>0.02314814814814815</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01388888888888889</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08796296296296297</v>
+        <v>0.09958506224066389</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1990740740740741</v>
+        <v>0.1950207468879668</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01142857142857143</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1771428571428571</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="I16">
-        <v>0.09142857142857143</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J16">
-        <v>0.3771428571428572</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="K16">
-        <v>0.08</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02285714285714286</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06857142857142857</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1714285714285714</v>
+        <v>0.1798941798941799</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02365591397849462</v>
+        <v>0.024</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2150537634408602</v>
+        <v>0.21</v>
       </c>
       <c r="I17">
-        <v>0.07741935483870968</v>
+        <v>0.076</v>
       </c>
       <c r="J17">
-        <v>0.432258064516129</v>
+        <v>0.432</v>
       </c>
       <c r="K17">
-        <v>0.07526881720430108</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01720430107526882</v>
+        <v>0.018</v>
       </c>
       <c r="N17">
-        <v>0.002150537634408602</v>
+        <v>0.002</v>
       </c>
       <c r="O17">
-        <v>0.06236559139784946</v>
+        <v>0.066</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09462365591397849</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01621621621621622</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2054054054054054</v>
+        <v>0.2019230769230769</v>
       </c>
       <c r="I18">
-        <v>0.0918918918918919</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="J18">
-        <v>0.4378378378378379</v>
+        <v>0.4519230769230769</v>
       </c>
       <c r="K18">
-        <v>0.08648648648648649</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02162162162162162</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05945945945945946</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08108108108108109</v>
+        <v>0.09134615384615384</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00625</v>
+        <v>0.008744038155802861</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2223214285714286</v>
+        <v>0.2225755166931637</v>
       </c>
       <c r="I19">
-        <v>0.05446428571428572</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J19">
-        <v>0.3866071428571429</v>
+        <v>0.3934817170111288</v>
       </c>
       <c r="K19">
-        <v>0.09821428571428571</v>
+        <v>0.09220985691573927</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01964285714285714</v>
+        <v>0.01828298887122417</v>
       </c>
       <c r="N19">
-        <v>0.002678571428571429</v>
+        <v>0.002384737678855326</v>
       </c>
       <c r="O19">
-        <v>0.08214285714285714</v>
+        <v>0.0794912559618442</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1276785714285714</v>
+        <v>0.1240063593004769</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Eastern Mich._B.xlsx
+++ b/team_specific_matrix/Eastern Mich._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2086092715231788</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="C2">
-        <v>0.5198675496688742</v>
+        <v>0.5123456790123457</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01324503311258278</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1589403973509934</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09933774834437085</v>
+        <v>0.09567901234567901</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006172839506172839</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="C3">
-        <v>0.0308641975308642</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04938271604938271</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7160493827160493</v>
+        <v>0.7134502923976608</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1975308641975309</v>
+        <v>0.1988304093567251</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0392156862745098</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6470588235294118</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3137254901960784</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07339449541284404</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01376146788990826</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07339449541284404</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2522935779816514</v>
+        <v>0.2468085106382979</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004587155963302753</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1605504587155963</v>
+        <v>0.1659574468085106</v>
       </c>
       <c r="R6">
-        <v>0.06880733944954129</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="S6">
-        <v>0.3532110091743119</v>
+        <v>0.348936170212766</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08666666666666667</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="E7">
-        <v>0.006666666666666667</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="F7">
-        <v>0.05333333333333334</v>
+        <v>0.05095541401273886</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1066666666666667</v>
+        <v>0.1146496815286624</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02666666666666667</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.1910828025477707</v>
       </c>
       <c r="R7">
-        <v>0.08</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="S7">
-        <v>0.4</v>
+        <v>0.4076433121019108</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.100990099009901</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0297029702970297</v>
+        <v>0.02767527675276753</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04752475247524753</v>
+        <v>0.04797047970479705</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1386138613861386</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01584158415841584</v>
+        <v>0.01845018450184502</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1782178217821782</v>
+        <v>0.1752767527675277</v>
       </c>
       <c r="R8">
-        <v>0.09504950495049505</v>
+        <v>0.0940959409594096</v>
       </c>
       <c r="S8">
-        <v>0.3940594059405941</v>
+        <v>0.4003690036900369</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1075949367088608</v>
+        <v>0.1077844311377246</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03164556962025317</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0379746835443038</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08227848101265822</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01265822784810127</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2088607594936709</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="R9">
-        <v>0.08860759493670886</v>
+        <v>0.08383233532934131</v>
       </c>
       <c r="S9">
-        <v>0.4303797468354431</v>
+        <v>0.4431137724550898</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1006661732050333</v>
+        <v>0.1004126547455296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01628423390081421</v>
+        <v>0.01788170563961486</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07549962990377498</v>
+        <v>0.07634112792297111</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206513693560326</v>
+        <v>0.1272352132049518</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01332346410066617</v>
+        <v>0.01306740027510316</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.233160621761658</v>
+        <v>0.2290233837689133</v>
       </c>
       <c r="R10">
-        <v>0.08734270910436713</v>
+        <v>0.0859697386519945</v>
       </c>
       <c r="S10">
-        <v>0.3530717986676536</v>
+        <v>0.3500687757909216</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.145748987854251</v>
+        <v>0.1406844106463878</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1174089068825911</v>
+        <v>0.1178707224334601</v>
       </c>
       <c r="K11">
-        <v>0.1983805668016194</v>
+        <v>0.1977186311787072</v>
       </c>
       <c r="L11">
-        <v>0.5182186234817814</v>
+        <v>0.5209125475285171</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02024291497975709</v>
+        <v>0.02281368821292776</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6716417910447762</v>
+        <v>0.6643356643356644</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2014925373134328</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="K12">
-        <v>0.02985074626865672</v>
+        <v>0.03496503496503497</v>
       </c>
       <c r="L12">
-        <v>0.05223880597014925</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04477611940298507</v>
+        <v>0.04195804195804196</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5853658536585366</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01244813278008299</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2157676348547718</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="I15">
-        <v>0.05394190871369295</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="J15">
-        <v>0.3775933609958506</v>
+        <v>0.3822393822393823</v>
       </c>
       <c r="K15">
-        <v>0.02904564315352697</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01659751037344398</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09958506224066389</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1950207468879668</v>
+        <v>0.1853281853281853</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01058201058201058</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1746031746031746</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="I16">
-        <v>0.08994708994708994</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="J16">
-        <v>0.3756613756613756</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="K16">
-        <v>0.07936507936507936</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02116402116402116</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06878306878306878</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1798941798941799</v>
+        <v>0.1831683168316832</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.024</v>
+        <v>0.02466793168880456</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.21</v>
+        <v>0.206831119544592</v>
       </c>
       <c r="I17">
-        <v>0.076</v>
+        <v>0.07400379506641366</v>
       </c>
       <c r="J17">
-        <v>0.432</v>
+        <v>0.4326375711574952</v>
       </c>
       <c r="K17">
-        <v>0.07199999999999999</v>
+        <v>0.07210626185958255</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.018</v>
+        <v>0.01707779886148008</v>
       </c>
       <c r="N17">
-        <v>0.002</v>
+        <v>0.00189753320683112</v>
       </c>
       <c r="O17">
-        <v>0.066</v>
+        <v>0.06261859582542695</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1</v>
+        <v>0.1081593927893738</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01923076923076923</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2019230769230769</v>
+        <v>0.1909090909090909</v>
       </c>
       <c r="I18">
-        <v>0.08173076923076923</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="J18">
-        <v>0.4519230769230769</v>
+        <v>0.45</v>
       </c>
       <c r="K18">
-        <v>0.08173076923076923</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01923076923076923</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05288461538461538</v>
+        <v>0.05909090909090909</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09134615384615384</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008744038155802861</v>
+        <v>0.008869179600886918</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2225755166931637</v>
+        <v>0.2254249815225425</v>
       </c>
       <c r="I19">
-        <v>0.05882352941176471</v>
+        <v>0.05838876570583888</v>
       </c>
       <c r="J19">
-        <v>0.3934817170111288</v>
+        <v>0.3909830007390983</v>
       </c>
       <c r="K19">
-        <v>0.09220985691573927</v>
+        <v>0.09312638580931264</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01828298887122417</v>
+        <v>0.01699926090169993</v>
       </c>
       <c r="N19">
-        <v>0.002384737678855326</v>
+        <v>0.002217294900221729</v>
       </c>
       <c r="O19">
-        <v>0.0794912559618442</v>
+        <v>0.07908351810790835</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1240063593004769</v>
+        <v>0.1249076127124908</v>
       </c>
     </row>
   </sheetData>
